--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,29 +640,29 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>No reg</t>
+          <t>460_350352</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Нет информации</t>
+          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЗАВОД АВТОНОМНЫХ ИСТОЧНИКОВ ТОКА</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>No info</t>
+          <t>01.12.2023</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>460_350352</t>
+          <t>2238_321006</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЗАВОД АВТОНОМНЫХ ИСТОЧНИКОВ ТОКА</t>
+          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО БРАТСКАЯ ЭЛЕКТРОСЕТЕВАЯ КОМПАНИЯ</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -674,114 +674,114 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2238_321006</t>
+          <t>460_52358</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО БРАТСКАЯ ЭЛЕКТРОСЕТЕВАЯ КОМПАНИЯ</t>
+          <t xml:space="preserve"> ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ВЫСШЕГО ОБРАЗОВАНИЯ САМАРСКИЙ ГОСУДАРСТВЕННЫЙ ТЕХНИЧЕСКИЙ УНИВЕРСИТЕТ</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01.12.2023</t>
+          <t>27.12.2023</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>460_52358</t>
+          <t>18_52569</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ВЫСШЕГО ОБРАЗОВАНИЯ САМАРСКИЙ ГОСУДАРСТВЕННЫЙ ТЕХНИЧЕСКИЙ УНИВЕРСИТЕТ</t>
+          <t xml:space="preserve"> Акционерное общество САМАРСКИЙ РЕЗЕРВУАРНЫЙ ЗАВОД</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>27.12.2023</t>
+          <t>01.12.2023</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>18_52569</t>
+          <t>2238_249467</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Акционерное общество САМАРСКИЙ РЕЗЕРВУАРНЫЙ ЗАВОД</t>
+          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО АТОМЭНЕРГОПРОЕКТ</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01.12.2023</t>
+          <t>27.12.2023</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2238_249467</t>
+          <t>460_424026</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО АТОМЭНЕРГОПРОЕКТ</t>
+          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО САМАРСКИЙ МЕТАЛЛУРГИЧЕСКИЙ ЗАВОД</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>27.12.2023</t>
+          <t>03.12.2023</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>460_424026</t>
+          <t>2238_438050</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО САМАРСКИЙ МЕТАЛЛУРГИЧЕСКИЙ ЗАВОД</t>
+          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО МАГАДАНЭНЕРГОРЕМОНТ</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>03.12.2023</t>
+          <t>13.12.2023</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2238_438050</t>
+          <t>460_436440</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО МАГАДАНЭНЕРГОРЕМОНТ</t>
+          <t xml:space="preserve"> ЧАСТНОЕ УЧРЕЖДЕНИЕ ДОПОЛНИТЕЛЬНОГО ПРОФЕССИОНАЛЬНОГО ОБРАЗОВАНИЯ УЧЕБНЫЙ ЦЕНТР УРАЛМАШЗАВОДА</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13.12.2023</t>
+          <t>01.12.2023</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>460_436440</t>
+          <t>460_350407</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ЧАСТНОЕ УЧРЕЖДЕНИЕ ДОПОЛНИТЕЛЬНОГО ПРОФЕССИОНАЛЬНОГО ОБРАЗОВАНИЯ УЧЕБНЫЙ ЦЕНТР УРАЛМАШЗАВОДА</t>
+          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО ГЛАЗОВСКИЙ ЗАВОД МЕТАЛЛИСТ</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -793,12 +793,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>460_350407</t>
+          <t>460_350537</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО ГЛАЗОВСКИЙ ЗАВОД МЕТАЛЛИСТ</t>
+          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ АЭРОЗОЛЕКС</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -810,12 +810,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>460_350537</t>
+          <t>460_350944</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ АЭРОЗОЛЕКС</t>
+          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО ХИМЭКС - 2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -827,46 +827,46 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>460_350944</t>
+          <t>460_436728</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО ХИМЭКС - 2</t>
+          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЦЕНТР КОНСАЛТИНГОВЫХ УСЛУГ ТЕУС</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01.12.2023</t>
+          <t>04.12.2023</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>460_436728</t>
+          <t>460_436085</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЦЕНТР КОНСАЛТИНГОВЫХ УСЛУГ ТЕУС</t>
+          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ДЕЛЬТА ТРАФО</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>04.12.2023</t>
+          <t>01.12.2023</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>460_436085</t>
+          <t>460_328248</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ДЕЛЬТА ТРАФО</t>
+          <t xml:space="preserve"> ООО Нова</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -878,66 +878,49 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>460_328248</t>
+          <t>No reg</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ООО Нова</t>
+          <t>Нет информации</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01.12.2023</t>
+          <t>No info</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>No reg</t>
+          <t>619_340544</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Нет информации</t>
+          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО ЗАСЛОН</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>No info</t>
+          <t>26.12.2023</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>619_340544</t>
+          <t>460_436715</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО ЗАСЛОН</t>
+          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ПАЛФИНГЕР КРАН РУС</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
-        <is>
-          <t>26.12.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>460_436715</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ПАЛФИНГЕР КРАН РУС</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>01.12.2023</t>
         </is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,114 +453,114 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18_225344</t>
+          <t>460_349027</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ПУБЛИЧНОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО ЯКУТСКЭНЕРГО</t>
+          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ УПРАВЛЯЮЩАЯ КОМПАНИЯ БЛАГО</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01.12.2023</t>
+          <t>21.12.2023</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18_235101</t>
+          <t>460_436766</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ООО Релематика</t>
+          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО ПРОМПРИБОР</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01.12.2023</t>
+          <t>11.12.2023</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>619_328161</t>
+          <t>460_52358</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ НАУЧНО-ПРОИЗВОДСТВЕННОЕ ОБЪЕДИНЕНИЕ МУРОМЭНЕРГОМАШ</t>
+          <t xml:space="preserve"> ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ВЫСШЕГО ОБРАЗОВАНИЯ САМАРСКИЙ ГОСУДАРСТВЕННЫЙ ТЕХНИЧЕСКИЙ УНИВЕРСИТЕТ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>05.12.2023</t>
+          <t>27.12.2023</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>619_269249</t>
+          <t>2238_249467</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ООО Гильдия Зодчих</t>
+          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО АТОМЭНЕРГОПРОЕКТ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01.12.2023</t>
+          <t>27.12.2023</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18_328237</t>
+          <t>No reg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО ЮЖНОУРАЛЬСКИЙ АРМАТУРНО-ИЗОЛЯТОРНЫЙ ЗАВОД</t>
+          <t>Нет информации</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11.12.2023</t>
+          <t>No info</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>619_225315</t>
+          <t>No reg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО УПРАВЛЯЮЩАЯ КОМПАНИЯ БИОХИМИЧЕСКОГО ХОЛДИНГА ОРГХИМ</t>
+          <t>Нет информации</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01.12.2023</t>
+          <t>No info</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>460_350073</t>
+          <t>460_436767</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО ВОРОНЕЖСТАЛЬМОСТ</t>
+          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ТУРБИННЫЕ ТЕХНОЛОГИИ ААЭМ</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -572,355 +572,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>460_349027</t>
+          <t>619_340544</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ УПРАВЛЯЮЩАЯ КОМПАНИЯ БЛАГО</t>
+          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО ЗАСЛОН</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21.12.2023</t>
+          <t>26.12.2023</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>460_436172</t>
+          <t>460_436715</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ВЕЛМАШ-СЕРВИС</t>
+          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ПАЛФИНГЕР КРАН РУС</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
-        <is>
-          <t>07.12.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>460_436766</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО ПРОМПРИБОР</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>11.12.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>460_214253</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО СПЕЦИАЛИЗИРОВАННЫЙ ЗАСТРОЙЩИК ПЗСП</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>14.12.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>460_350352</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЗАВОД АВТОНОМНЫХ ИСТОЧНИКОВ ТОКА</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>01.12.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2238_321006</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО БРАТСКАЯ ЭЛЕКТРОСЕТЕВАЯ КОМПАНИЯ</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>01.12.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>460_52358</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ВЫСШЕГО ОБРАЗОВАНИЯ САМАРСКИЙ ГОСУДАРСТВЕННЫЙ ТЕХНИЧЕСКИЙ УНИВЕРСИТЕТ</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>27.12.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>18_52569</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Акционерное общество САМАРСКИЙ РЕЗЕРВУАРНЫЙ ЗАВОД</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>01.12.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2238_249467</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО АТОМЭНЕРГОПРОЕКТ</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>27.12.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>460_424026</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО САМАРСКИЙ МЕТАЛЛУРГИЧЕСКИЙ ЗАВОД</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>03.12.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2238_438050</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО МАГАДАНЭНЕРГОРЕМОНТ</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>13.12.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>460_436440</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ЧАСТНОЕ УЧРЕЖДЕНИЕ ДОПОЛНИТЕЛЬНОГО ПРОФЕССИОНАЛЬНОГО ОБРАЗОВАНИЯ УЧЕБНЫЙ ЦЕНТР УРАЛМАШЗАВОДА</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>01.12.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>460_350407</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО ГЛАЗОВСКИЙ ЗАВОД МЕТАЛЛИСТ</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>01.12.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>460_350537</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ АЭРОЗОЛЕКС</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>01.12.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>460_350944</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО ХИМЭКС - 2</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>01.12.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>460_436728</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЦЕНТР КОНСАЛТИНГОВЫХ УСЛУГ ТЕУС</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>04.12.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>460_436085</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ДЕЛЬТА ТРАФО</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>01.12.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>460_328248</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ООО Нова</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>01.12.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>No reg</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Нет информации</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>No info</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>619_340544</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО ЗАСЛОН</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>26.12.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>460_436715</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ПАЛФИНГЕР КРАН РУС</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
         <is>
           <t>01.12.2023</t>
         </is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,165 +441,1147 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Host</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Port</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>clients</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Corp-Trial</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Срок службы</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>460_349027</t>
+          <t>18_225344</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ УПРАВЛЯЮЩАЯ КОМПАНИЯ БЛАГО</t>
+          <t>91.219.56.146</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21.12.2023</t>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ПУБЛИЧНОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО ЯКУТСКЭНЕРГО</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>460_436766</t>
+          <t>18_328244</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО ПРОМПРИБОР</t>
+          <t>91.219.56.146</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11.12.2023</t>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО АТОМНОЕ И ЭНЕРГЕТИЧЕСКОЕ МАШИНОСТРОЕНИЕ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Без срока</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>460_52358</t>
+          <t>18_235101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ВЫСШЕГО ОБРАЗОВАНИЯ САМАРСКИЙ ГОСУДАРСТВЕННЫЙ ТЕХНИЧЕСКИЙ УНИВЕРСИТЕТ</t>
+          <t>91.219.56.146</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>27.12.2023</t>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ООО Релематика</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2238_249467</t>
+          <t>619_328161</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО АТОМЭНЕРГОПРОЕКТ</t>
+          <t>91.219.56.146</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>27.12.2023</t>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ НАУЧНО-ПРОИЗВОДСТВЕННОЕ ОБЪЕДИНЕНИЕ МУРОМЭНЕРГОМАШ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>05.01.2024</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>05.01.2024</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>No reg</t>
+          <t>619_269249</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Нет информации</t>
+          <t>91.219.56.146</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No info</t>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ООО Гильдия Зодчих</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>No reg</t>
+          <t>18_328202</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Нет информации</t>
+          <t>91.219.56.146</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>No info</t>
+          <t>5050</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ПУБЛИЧНОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО ЯКУТСКЭНЕРГО</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>09.01.2024</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>09.01.2024</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>460_436767</t>
+          <t>619_328237</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ТУРБИННЫЕ ТЕХНОЛОГИИ ААЭМ</t>
+          <t>91.219.56.146</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01.12.2023</t>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО ЮЖНОУРАЛЬСКИЙ АРМАТУРНО-ИЗОЛЯТОРНЫЙ ЗАВОД</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>01.12.2024</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11.01.2024</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>619_340544</t>
+          <t>619_225315</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО ЗАСЛОН</t>
+          <t>91.219.56.146</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>26.12.2023</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО УПРАВЛЯЮЩАЯ КОМПАНИЯ БИОХИМИЧЕСКОГО ХОЛДИНГА ОРГХИМ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>460_350073</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>91.219.56.146</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>8080</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО ВОРОНЕЖСТАЛЬМОСТ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>460_349027</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>91.219.56.146</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9090</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ УПРАВЛЯЮЩАЯ КОМПАНИЯ БЛАГО</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>460_436172</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>95.79.102.106</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ВЕЛМАШ-СЕРВИС</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>07.01.2024</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>07.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>460_350528</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>95.79.102.106</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ПАЛФИНГЕР КАМА ЦИЛИНДРЫ</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>460_436776</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>95.79.112.202</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО НАУЧНО-ИССЛЕДОВАТЕЛЬСКИЙ ИНСТИТУТ ТЕХНИЧЕСКОГО СТЕКЛА ИМ ВФСОЛИНОВА</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30.12.2023</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>30.12.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>460_436766</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>95.79.112.202</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО ПРОМПРИБОР</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>460_214253</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>95.79.112.203</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО СПЕЦИАЛИЗИРОВАННЫЙ ЗАСТРОЙЩИК ПЗСП</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>14.01.2024</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>14.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>460_436280</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>95.79.112.203</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ РУССКАЯ БАКАЛЕЙНАЯ КОМПАНИЯ</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>04.01.2024</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>04.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>460_350664</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>95.79.112.203</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ОТКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО ВЫСОКОГОРСКИЙ ГОРНО-ОБОГАТИТЕЛЬНЫЙ КОМБИНАТ</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>460_350352</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>95.79.112.203</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЗАВОД АВТОНОМНЫХ ИСТОЧНИКОВ ТОКА</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>619_350948</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>95.79.112.203</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5050</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ПУБЛИЧНОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО УРАЛЬСКАЯ КУЗНИЦА</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2238_321006</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>95.79.112.204</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3030</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО БРАТСКАЯ ЭЛЕКТРОСЕТЕВАЯ КОМПАНИЯ</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>460_52358</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>95.79.112.204</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ВЫСШЕГО ОБРАЗОВАНИЯ САМАРСКИЙ ГОСУДАРСТВЕННЫЙ ТЕХНИЧЕСКИЙ УНИВЕРСИТЕТ</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>18_52569</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>95.79.112.204</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Акционерное общество САМАРСКИЙ РЕЗЕРВУАРНЫЙ ЗАВОД</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2238_438002</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>95.79.59.227</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО АТОМЭНЕРГОПРОЕКТ</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>16.01.2024</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Без срока</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2238_249467</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>95.79.59.227</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО АТОМЭНЕРГОПРОЕКТ</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Без срока</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>460_424026</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>95.79.59.227</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО САМАРСКИЙ МЕТАЛЛУРГИЧЕСКИЙ ЗАВОД</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>03.01.2024</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>03.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>18_53668</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>95.79.59.227</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ РОССИЙСКАЯ ИННОВАЦИОННАЯ ТОПЛИВНО-ЭНЕРГЕТИЧЕСКАЯ КОМПАНИЯ</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>17.01.2024</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Без срока</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2238_438050</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>95.79.59.227</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3030</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО МАГАДАНЭНЕРГОРЕМОНТ</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>13.01.2024</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>13.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>460_436440</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>95.79.59.227</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ЧАСТНОЕ УЧРЕЖДЕНИЕ ДОПОЛНИТЕЛЬНОГО ПРОФЕССИОНАЛЬНОГО ОБРАЗОВАНИЯ УЧЕБНЫЙ ЦЕНТР УРАЛМАШЗАВОДА</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>460_350407</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>95.79.59.227</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО ГЛАЗОВСКИЙ ЗАВОД МЕТАЛЛИСТ</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>460_350537</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>95.79.59.227</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ АЭРОЗОЛЕКС</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>18_368056</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>95.79.59.227</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ РАСКО ГАЗЭЛЕКТРОНИКА</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10.01.2024</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Без срока</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>460_350944</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>95.79.59.227</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> АКЦИОНЕРНОЕ ОБЩЕСТВО ХИМЭКС - 2</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>460_436728</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>95.79.59.227</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>9000</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЦЕНТР КОНСАЛТИНГОВЫХ УСЛУГ ТЕУС</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>04.01.2024</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>04.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>460_328248</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>REX</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ООО Нова</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>460_436715</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>suntd</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t xml:space="preserve"> ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ПАЛФИНГЕР КРАН РУС</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>01.12.2023</t>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
         </is>
       </c>
     </row>
